--- a/biology/Zoologie/Anasazisaurus/Anasazisaurus.xlsx
+++ b/biology/Zoologie/Anasazisaurus/Anasazisaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anasazisaurus (« lézard des Anasazis ») vivait au Nouveau-Mexique (Kimbeto Arroyo) au Crétacé supérieur, il y a 74 millions d’années. C’est un genre de dinosaure ornithopode de la famille des Hadrosauridae, de la sous-famille des Hadrosaurinae. Il a été découvert en 1977 dans la formation de Kirtland. Il a d’abord été décrit comme un Kritosaurus par Jack Horner[1],[2]. Anasazisaurus avait une courte crête nasale (plutôt une bosse)[3].
-Une seule espèce est connue : Anasazisaurus horneri[4],[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anasazisaurus (« lézard des Anasazis ») vivait au Nouveau-Mexique (Kimbeto Arroyo) au Crétacé supérieur, il y a 74 millions d’années. C’est un genre de dinosaure ornithopode de la famille des Hadrosauridae, de la sous-famille des Hadrosaurinae. Il a été découvert en 1977 dans la formation de Kirtland. Il a d’abord été décrit comme un Kritosaurus par Jack Horner,. Anasazisaurus avait une courte crête nasale (plutôt une bosse).
+Une seule espèce est connue : Anasazisaurus horneri.
 Son nom de genre a été donné d'après les Indiens Anasazi
 Période : Crétacé (−145 Ma à −66 Ma)
 Taille : 10 m de long, 5 m de haut, 3 tonnes
@@ -517,9 +529,11 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BYU 12950: un crâne partiel (90 cm)[7]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BYU 12950: un crâne partiel (90 cm)
 </t>
         </is>
       </c>
